--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_holiday.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_holiday.xlsx
@@ -356,11 +356,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -455,10 +454,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -469,6 +464,10 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -491,33 +490,33 @@
   <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -525,6529 +524,6529 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>2000001</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2000002</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>2000003</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2000004</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>2000005</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>2000006</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>2000007</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>2000008</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>2000009</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>2000010</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>2000011</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>2000012</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>2000013</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>2000001</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>2000002</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>2000003</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2000004</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>2000005</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2000006</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2000007</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>2000008</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>2000010</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2000012</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>2000013</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>2000001</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2000002</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2000003</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2000004</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2000005</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>2000006</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>2000007</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2000008</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>2000009</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>2000010</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2000011</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>2000012</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>2000013</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2000001</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2000002</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>2000003</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2000004</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>2000005</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>2000006</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2000007</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>2000008</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2000010</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>2000012</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>2000013</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="0" t="s">
+      <c r="F49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>2000014</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="3" t="n">
+      <c r="F50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>2000015</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="3" t="n">
+      <c r="F51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>2000016</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="3" t="n">
+      <c r="F52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>2000017</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="3" t="n">
+      <c r="F53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>2000018</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="3" t="n">
+      <c r="F54" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>2000019</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="3" t="n">
+      <c r="F55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>2000020</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="3" t="n">
+      <c r="F56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>2000021</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="3" t="n">
+      <c r="F57" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>2000022</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F58" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="3" t="n">
+      <c r="F58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>2000023</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" s="3" t="n">
+      <c r="F59" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>2000024</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F60" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="3" t="n">
+      <c r="F60" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>2000025</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F61" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="3" t="n">
+      <c r="F61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>2000026</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="3" t="n">
+      <c r="F62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>2000027</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="3" t="n">
+      <c r="F63" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>2000028</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="3" t="n">
+      <c r="F64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>2000029</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F65" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="3" t="n">
+      <c r="F65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>2000030</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F66" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G66" s="3" t="n">
+      <c r="F66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>2000031</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G67" s="3" t="n">
+      <c r="F67" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>2000032</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F68" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G68" s="3" t="n">
+      <c r="F68" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>2000033</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F69" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G69" s="3" t="n">
+      <c r="F69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>2000034</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="3" t="n">
+      <c r="F70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>2000035</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G71" s="3" t="n">
+      <c r="F71" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>2000036</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" s="3" t="n">
+      <c r="F72" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>2000037</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="3" t="n">
+      <c r="F73" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>2000038</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="3" t="n">
+      <c r="F74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>2000039</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F75" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75" s="3" t="n">
+      <c r="F75" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>2000040</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F76" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76" s="3" t="n">
+      <c r="F76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>2000041</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F77" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77" s="3" t="n">
+      <c r="F77" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>2000042</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="3" t="n">
+      <c r="F78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>2000043</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="3" t="n">
+      <c r="F79" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>2000044</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="3" t="n">
+      <c r="F80" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>2000045</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="3" t="n">
+      <c r="F81" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>2000046</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="3" t="n">
+      <c r="F82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>2000047</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="3" t="n">
+      <c r="F83" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>2000048</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="3" t="n">
+      <c r="F84" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>2000049</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F85" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" s="3" t="n">
+      <c r="F85" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>2000050</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F86" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86" s="3" t="n">
+      <c r="F86" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>2000051</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="3" t="n">
+      <c r="F87" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>2000052</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G88" s="3" t="n">
+      <c r="F88" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G88" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>2000053</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" s="3" t="n">
+      <c r="F89" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>2000054</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="3" t="n">
+      <c r="F90" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G90" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>2000055</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G91" s="3" t="n">
+      <c r="F91" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>2000056</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="3" t="n">
+      <c r="F92" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>2000057</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F93" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="3" t="n">
+      <c r="F93" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>2000058</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F94" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" s="3" t="n">
+      <c r="F94" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>2000059</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="3" t="n">
+      <c r="F95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>2000060</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F96" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G96" s="3" t="n">
+      <c r="F96" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>2000061</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" s="3" t="n">
+      <c r="F97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>2000062</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F98" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" s="3" t="n">
+      <c r="F98" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G98" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>2000063</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F99" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G99" s="3" t="n">
+      <c r="F99" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G99" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>2000064</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F100" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G100" s="3" t="n">
+      <c r="F100" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>2000065</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G101" s="3" t="n">
+      <c r="F101" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G101" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>2000066</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F102" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G102" s="3" t="n">
+      <c r="F102" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G102" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>2000067</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G103" s="3" t="n">
+      <c r="F103" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G103" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>2000068</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G104" s="3" t="n">
+      <c r="F104" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G104" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>2000069</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F105" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="3" t="n">
+      <c r="F105" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G105" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>2000014</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F106" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G106" s="3" t="n">
+      <c r="F106" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G106" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>2000015</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F107" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G107" s="3" t="n">
+      <c r="F107" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>2000016</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F108" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G108" s="3" t="n">
+      <c r="F108" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G108" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>2000017</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" s="3" t="n">
+      <c r="F109" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G109" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>2000018</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F110" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G110" s="3" t="n">
+      <c r="F110" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G110" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>2000019</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F111" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G111" s="3" t="n">
+      <c r="F111" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>2000020</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F112" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G112" s="3" t="n">
+      <c r="F112" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>2000021</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F113" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G113" s="3" t="n">
+      <c r="F113" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G113" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>2000022</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F114" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G114" s="3" t="n">
+      <c r="F114" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G114" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>2000023</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F115" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G115" s="3" t="n">
+      <c r="F115" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G115" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>2000024</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F116" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G116" s="3" t="n">
+      <c r="F116" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>2000025</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="0" t="s">
+      <c r="E117" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F117" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" s="3" t="n">
+      <c r="F117" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>2000026</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F118" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G118" s="3" t="n">
+      <c r="F118" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G118" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>2000027</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F119" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G119" s="3" t="n">
+      <c r="F119" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G119" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>2000028</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E120" s="0" t="s">
+      <c r="E120" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F120" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G120" s="3" t="n">
+      <c r="F120" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>2000029</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F121" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G121" s="3" t="n">
+      <c r="F121" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G121" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>2000030</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F122" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G122" s="3" t="n">
+      <c r="F122" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G122" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>2000031</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F123" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G123" s="3" t="n">
+      <c r="F123" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G123" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>2000032</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E124" s="0" t="s">
+      <c r="E124" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F124" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G124" s="3" t="n">
+      <c r="F124" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G124" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>2000033</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="E125" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F125" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G125" s="3" t="n">
+      <c r="F125" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G125" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>2000034</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E126" s="0" t="s">
+      <c r="E126" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F126" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G126" s="3" t="n">
+      <c r="F126" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G126" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>2000035</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F127" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" s="3" t="n">
+      <c r="F127" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G127" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>2000036</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F128" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G128" s="3" t="n">
+      <c r="F128" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>2000037</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F129" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G129" s="3" t="n">
+      <c r="F129" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>2000038</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F130" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G130" s="3" t="n">
+      <c r="F130" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G130" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>2000039</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F131" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G131" s="3" t="n">
+      <c r="F131" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>2000040</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F132" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" s="3" t="n">
+      <c r="F132" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G132" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>2000041</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F133" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" s="3" t="n">
+      <c r="F133" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G133" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>2000042</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F134" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134" s="3" t="n">
+      <c r="F134" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G134" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>2000043</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E135" s="0" t="s">
+      <c r="E135" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F135" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" s="3" t="n">
+      <c r="F135" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G135" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>2000044</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="E136" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F136" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G136" s="3" t="n">
+      <c r="F136" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G136" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>2000045</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E137" s="0" t="s">
+      <c r="E137" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F137" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G137" s="3" t="n">
+      <c r="F137" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G137" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>2000046</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E138" s="0" t="s">
+      <c r="E138" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F138" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G138" s="3" t="n">
+      <c r="F138" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G138" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>2000047</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E139" s="0" t="s">
+      <c r="E139" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F139" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G139" s="3" t="n">
+      <c r="F139" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G139" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>2000048</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E140" s="0" t="s">
+      <c r="E140" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F140" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G140" s="3" t="n">
+      <c r="F140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G140" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>2000049</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E141" s="0" t="s">
+      <c r="E141" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F141" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" s="3" t="n">
+      <c r="F141" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G141" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>2000050</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E142" s="0" t="s">
+      <c r="E142" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F142" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G142" s="3" t="n">
+      <c r="F142" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G142" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>2000051</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E143" s="0" t="s">
+      <c r="E143" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F143" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G143" s="3" t="n">
+      <c r="F143" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G143" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>2000052</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E144" s="0" t="s">
+      <c r="E144" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F144" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G144" s="3" t="n">
+      <c r="F144" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G144" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>2000053</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E145" s="0" t="s">
+      <c r="E145" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F145" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" s="3" t="n">
+      <c r="F145" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G145" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>2000054</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E146" s="0" t="s">
+      <c r="E146" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F146" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G146" s="3" t="n">
+      <c r="F146" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G146" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>2000055</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E147" s="0" t="s">
+      <c r="E147" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F147" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G147" s="3" t="n">
+      <c r="F147" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G147" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>2000056</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="E148" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F148" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G148" s="3" t="n">
+      <c r="F148" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G148" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>2000057</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="E149" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F149" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G149" s="3" t="n">
+      <c r="F149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G149" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>2000058</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E150" s="0" t="s">
+      <c r="E150" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F150" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G150" s="3" t="n">
+      <c r="F150" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G150" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>2000059</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E151" s="0" t="s">
+      <c r="E151" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F151" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G151" s="3" t="n">
+      <c r="F151" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G151" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>2000060</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E152" s="0" t="s">
+      <c r="E152" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F152" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G152" s="3" t="n">
+      <c r="F152" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G152" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>2000061</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E153" s="0" t="s">
+      <c r="E153" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F153" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G153" s="3" t="n">
+      <c r="F153" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G153" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>2000062</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E154" s="0" t="s">
+      <c r="E154" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F154" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G154" s="3" t="n">
+      <c r="F154" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G154" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>2000063</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E155" s="0" t="s">
+      <c r="E155" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F155" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G155" s="3" t="n">
+      <c r="F155" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G155" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>2000064</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E156" s="0" t="s">
+      <c r="E156" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F156" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G156" s="3" t="n">
+      <c r="F156" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G156" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>2000065</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E157" s="0" t="s">
+      <c r="E157" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F157" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G157" s="3" t="n">
+      <c r="F157" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G157" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>2000066</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E158" s="0" t="s">
+      <c r="E158" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F158" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G158" s="3" t="n">
+      <c r="F158" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G158" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>2000067</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E159" s="0" t="s">
+      <c r="E159" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F159" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G159" s="3" t="n">
+      <c r="F159" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G159" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>2000068</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E160" s="0" t="s">
+      <c r="E160" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F160" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G160" s="3" t="n">
+      <c r="F160" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G160" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>2000069</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E161" s="0" t="s">
+      <c r="E161" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F161" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G161" s="3" t="n">
+      <c r="F161" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G161" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>2000014</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E162" s="0" t="s">
+      <c r="E162" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F162" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G162" s="3" t="n">
+      <c r="F162" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G162" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>2000015</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E163" s="0" t="s">
+      <c r="E163" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F163" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G163" s="3" t="n">
+      <c r="F163" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G163" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>2000016</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E164" s="0" t="s">
+      <c r="E164" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F164" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G164" s="3" t="n">
+      <c r="F164" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G164" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>2000017</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E165" s="0" t="s">
+      <c r="E165" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F165" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G165" s="3" t="n">
+      <c r="F165" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G165" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>2000018</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E166" s="0" t="s">
+      <c r="E166" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F166" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G166" s="3" t="n">
+      <c r="F166" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G166" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>2000019</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E167" s="0" t="s">
+      <c r="E167" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F167" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G167" s="3" t="n">
+      <c r="F167" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G167" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>2000020</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E168" s="0" t="s">
+      <c r="E168" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F168" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G168" s="3" t="n">
+      <c r="F168" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G168" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>2000021</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E169" s="0" t="s">
+      <c r="E169" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F169" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G169" s="3" t="n">
+      <c r="F169" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G169" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>2000022</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="C170" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E170" s="0" t="s">
+      <c r="E170" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F170" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G170" s="3" t="n">
+      <c r="F170" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G170" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>2000023</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E171" s="0" t="s">
+      <c r="E171" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F171" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G171" s="3" t="n">
+      <c r="F171" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G171" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>2000024</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E172" s="0" t="s">
+      <c r="E172" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F172" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G172" s="3" t="n">
+      <c r="F172" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G172" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>2000025</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E173" s="0" t="s">
+      <c r="E173" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F173" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G173" s="3" t="n">
+      <c r="F173" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G173" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>2000026</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E174" s="0" t="s">
+      <c r="E174" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F174" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G174" s="3" t="n">
+      <c r="F174" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G174" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>2000027</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E175" s="0" t="s">
+      <c r="E175" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F175" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G175" s="3" t="n">
+      <c r="F175" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G175" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>2000028</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E176" s="0" t="s">
+      <c r="E176" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F176" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G176" s="3" t="n">
+      <c r="F176" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G176" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>2000029</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E177" s="0" t="s">
+      <c r="E177" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F177" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G177" s="3" t="n">
+      <c r="F177" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G177" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>2000030</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E178" s="0" t="s">
+      <c r="E178" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F178" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G178" s="3" t="n">
+      <c r="F178" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G178" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>2000031</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E179" s="0" t="s">
+      <c r="E179" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F179" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G179" s="3" t="n">
+      <c r="F179" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G179" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>2000032</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E180" s="0" t="s">
+      <c r="E180" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F180" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G180" s="3" t="n">
+      <c r="F180" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G180" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>2000033</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E181" s="0" t="s">
+      <c r="E181" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F181" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G181" s="3" t="n">
+      <c r="F181" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G181" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>2000034</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E182" s="0" t="s">
+      <c r="E182" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F182" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G182" s="3" t="n">
+      <c r="F182" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G182" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>2000035</v>
       </c>
-      <c r="C183" s="0" t="s">
+      <c r="C183" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E183" s="0" t="s">
+      <c r="E183" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F183" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G183" s="3" t="n">
+      <c r="F183" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G183" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>2000036</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E184" s="0" t="s">
+      <c r="E184" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F184" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G184" s="3" t="n">
+      <c r="F184" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G184" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>2000037</v>
       </c>
-      <c r="C185" s="0" t="s">
+      <c r="C185" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E185" s="0" t="s">
+      <c r="E185" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F185" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G185" s="3" t="n">
+      <c r="F185" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G185" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>2000038</v>
       </c>
-      <c r="C186" s="0" t="s">
+      <c r="C186" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E186" s="0" t="s">
+      <c r="E186" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F186" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G186" s="3" t="n">
+      <c r="F186" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G186" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>2000039</v>
       </c>
-      <c r="C187" s="0" t="s">
+      <c r="C187" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E187" s="0" t="s">
+      <c r="E187" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F187" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G187" s="3" t="n">
+      <c r="F187" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G187" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>2000040</v>
       </c>
-      <c r="C188" s="0" t="s">
+      <c r="C188" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E188" s="0" t="s">
+      <c r="E188" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F188" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G188" s="3" t="n">
+      <c r="F188" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G188" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>2000041</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="C189" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E189" s="0" t="s">
+      <c r="E189" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F189" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G189" s="3" t="n">
+      <c r="F189" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G189" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>2000042</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="C190" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E190" s="0" t="s">
+      <c r="E190" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F190" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G190" s="3" t="n">
+      <c r="F190" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G190" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>2000043</v>
       </c>
-      <c r="C191" s="0" t="s">
+      <c r="C191" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E191" s="0" t="s">
+      <c r="E191" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F191" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G191" s="3" t="n">
+      <c r="F191" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G191" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>2000044</v>
       </c>
-      <c r="C192" s="0" t="s">
+      <c r="C192" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E192" s="0" t="s">
+      <c r="E192" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F192" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G192" s="3" t="n">
+      <c r="F192" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G192" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>2000045</v>
       </c>
-      <c r="C193" s="0" t="s">
+      <c r="C193" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E193" s="0" t="s">
+      <c r="E193" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F193" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G193" s="3" t="n">
+      <c r="F193" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G193" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>2000046</v>
       </c>
-      <c r="C194" s="0" t="s">
+      <c r="C194" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E194" s="0" t="s">
+      <c r="E194" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F194" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G194" s="3" t="n">
+      <c r="F194" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G194" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>2000047</v>
       </c>
-      <c r="C195" s="0" t="s">
+      <c r="C195" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E195" s="0" t="s">
+      <c r="E195" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F195" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G195" s="3" t="n">
+      <c r="F195" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G195" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>2000048</v>
       </c>
-      <c r="C196" s="0" t="s">
+      <c r="C196" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E196" s="0" t="s">
+      <c r="E196" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F196" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G196" s="3" t="n">
+      <c r="F196" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G196" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>2000049</v>
       </c>
-      <c r="C197" s="0" t="s">
+      <c r="C197" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E197" s="0" t="s">
+      <c r="E197" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F197" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G197" s="3" t="n">
+      <c r="F197" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G197" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>2000050</v>
       </c>
-      <c r="C198" s="0" t="s">
+      <c r="C198" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E198" s="0" t="s">
+      <c r="E198" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F198" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G198" s="3" t="n">
+      <c r="F198" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G198" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>2000051</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="C199" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E199" s="0" t="s">
+      <c r="E199" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F199" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G199" s="3" t="n">
+      <c r="F199" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G199" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>2000052</v>
       </c>
-      <c r="C200" s="0" t="s">
+      <c r="C200" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E200" s="0" t="s">
+      <c r="E200" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F200" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G200" s="3" t="n">
+      <c r="F200" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G200" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>2000053</v>
       </c>
-      <c r="C201" s="0" t="s">
+      <c r="C201" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E201" s="0" t="s">
+      <c r="E201" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F201" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G201" s="3" t="n">
+      <c r="F201" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G201" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>2000054</v>
       </c>
-      <c r="C202" s="0" t="s">
+      <c r="C202" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E202" s="0" t="s">
+      <c r="E202" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F202" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G202" s="3" t="n">
+      <c r="F202" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G202" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>2000055</v>
       </c>
-      <c r="C203" s="0" t="s">
+      <c r="C203" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E203" s="0" t="s">
+      <c r="E203" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F203" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G203" s="3" t="n">
+      <c r="F203" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G203" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>2000056</v>
       </c>
-      <c r="C204" s="0" t="s">
+      <c r="C204" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E204" s="0" t="s">
+      <c r="E204" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F204" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G204" s="3" t="n">
+      <c r="F204" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G204" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>2000057</v>
       </c>
-      <c r="C205" s="0" t="s">
+      <c r="C205" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E205" s="0" t="s">
+      <c r="E205" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F205" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G205" s="3" t="n">
+      <c r="F205" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G205" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>2000058</v>
       </c>
-      <c r="C206" s="0" t="s">
+      <c r="C206" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E206" s="0" t="s">
+      <c r="E206" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F206" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G206" s="3" t="n">
+      <c r="F206" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G206" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>2000059</v>
       </c>
-      <c r="C207" s="0" t="s">
+      <c r="C207" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E207" s="0" t="s">
+      <c r="E207" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F207" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G207" s="3" t="n">
+      <c r="F207" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G207" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>2000060</v>
       </c>
-      <c r="C208" s="0" t="s">
+      <c r="C208" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E208" s="0" t="s">
+      <c r="E208" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F208" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G208" s="3" t="n">
+      <c r="F208" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G208" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>2000061</v>
       </c>
-      <c r="C209" s="0" t="s">
+      <c r="C209" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E209" s="0" t="s">
+      <c r="E209" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F209" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G209" s="3" t="n">
+      <c r="F209" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G209" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>2000062</v>
       </c>
-      <c r="C210" s="0" t="s">
+      <c r="C210" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E210" s="0" t="s">
+      <c r="E210" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F210" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G210" s="3" t="n">
+      <c r="F210" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G210" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>2000063</v>
       </c>
-      <c r="C211" s="0" t="s">
+      <c r="C211" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E211" s="0" t="s">
+      <c r="E211" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F211" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G211" s="3" t="n">
+      <c r="F211" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G211" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>2000064</v>
       </c>
-      <c r="C212" s="0" t="s">
+      <c r="C212" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E212" s="0" t="s">
+      <c r="E212" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F212" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G212" s="3" t="n">
+      <c r="F212" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G212" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>2000065</v>
       </c>
-      <c r="C213" s="0" t="s">
+      <c r="C213" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E213" s="0" t="s">
+      <c r="E213" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F213" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G213" s="3" t="n">
+      <c r="F213" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>2000066</v>
       </c>
-      <c r="C214" s="0" t="s">
+      <c r="C214" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E214" s="0" t="s">
+      <c r="E214" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F214" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G214" s="3" t="n">
+      <c r="F214" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G214" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>2000067</v>
       </c>
-      <c r="C215" s="0" t="s">
+      <c r="C215" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E215" s="0" t="s">
+      <c r="E215" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F215" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G215" s="3" t="n">
+      <c r="F215" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G215" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>2000068</v>
       </c>
-      <c r="C216" s="0" t="s">
+      <c r="C216" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E216" s="0" t="s">
+      <c r="E216" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F216" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G216" s="3" t="n">
+      <c r="F216" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G216" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>2000069</v>
       </c>
-      <c r="C217" s="0" t="s">
+      <c r="C217" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E217" s="0" t="s">
+      <c r="E217" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F217" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G217" s="3" t="n">
+      <c r="F217" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G217" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>2000014</v>
       </c>
-      <c r="C218" s="0" t="s">
+      <c r="C218" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E218" s="0" t="s">
+      <c r="E218" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F218" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G218" s="3" t="n">
+      <c r="F218" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G218" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>2000015</v>
       </c>
-      <c r="C219" s="0" t="s">
+      <c r="C219" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E219" s="0" t="s">
+      <c r="E219" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F219" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G219" s="3" t="n">
+      <c r="F219" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G219" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>2000016</v>
       </c>
-      <c r="C220" s="0" t="s">
+      <c r="C220" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E220" s="0" t="s">
+      <c r="E220" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F220" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G220" s="3" t="n">
+      <c r="F220" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G220" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>2000017</v>
       </c>
-      <c r="C221" s="0" t="s">
+      <c r="C221" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E221" s="0" t="s">
+      <c r="E221" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F221" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G221" s="3" t="n">
+      <c r="F221" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G221" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>2000018</v>
       </c>
-      <c r="C222" s="0" t="s">
+      <c r="C222" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E222" s="0" t="s">
+      <c r="E222" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F222" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G222" s="3" t="n">
+      <c r="F222" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G222" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>2000019</v>
       </c>
-      <c r="C223" s="0" t="s">
+      <c r="C223" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E223" s="0" t="s">
+      <c r="E223" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F223" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G223" s="3" t="n">
+      <c r="F223" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G223" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>2000020</v>
       </c>
-      <c r="C224" s="0" t="s">
+      <c r="C224" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E224" s="0" t="s">
+      <c r="E224" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F224" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G224" s="3" t="n">
+      <c r="F224" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G224" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>2000021</v>
       </c>
-      <c r="C225" s="0" t="s">
+      <c r="C225" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E225" s="0" t="s">
+      <c r="E225" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F225" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G225" s="3" t="n">
+      <c r="F225" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G225" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>2000022</v>
       </c>
-      <c r="C226" s="0" t="s">
+      <c r="C226" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E226" s="0" t="s">
+      <c r="E226" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F226" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G226" s="3" t="n">
+      <c r="F226" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G226" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>2000023</v>
       </c>
-      <c r="C227" s="0" t="s">
+      <c r="C227" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E227" s="0" t="s">
+      <c r="E227" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F227" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G227" s="3" t="n">
+      <c r="F227" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G227" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>2000024</v>
       </c>
-      <c r="C228" s="0" t="s">
+      <c r="C228" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E228" s="0" t="s">
+      <c r="E228" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F228" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G228" s="3" t="n">
+      <c r="F228" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G228" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>2000025</v>
       </c>
-      <c r="C229" s="0" t="s">
+      <c r="C229" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E229" s="0" t="s">
+      <c r="E229" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F229" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G229" s="3" t="n">
+      <c r="F229" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G229" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>2000026</v>
       </c>
-      <c r="C230" s="0" t="s">
+      <c r="C230" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E230" s="0" t="s">
+      <c r="E230" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F230" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G230" s="3" t="n">
+      <c r="F230" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G230" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>2000027</v>
       </c>
-      <c r="C231" s="0" t="s">
+      <c r="C231" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E231" s="0" t="s">
+      <c r="E231" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F231" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G231" s="3" t="n">
+      <c r="F231" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G231" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>2000028</v>
       </c>
-      <c r="C232" s="0" t="s">
+      <c r="C232" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E232" s="0" t="s">
+      <c r="E232" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F232" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G232" s="3" t="n">
+      <c r="F232" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G232" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>2000029</v>
       </c>
-      <c r="C233" s="0" t="s">
+      <c r="C233" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E233" s="0" t="s">
+      <c r="E233" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F233" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G233" s="3" t="n">
+      <c r="F233" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G233" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>2000030</v>
       </c>
-      <c r="C234" s="0" t="s">
+      <c r="C234" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E234" s="0" t="s">
+      <c r="E234" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F234" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G234" s="3" t="n">
+      <c r="F234" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>2000031</v>
       </c>
-      <c r="C235" s="0" t="s">
+      <c r="C235" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E235" s="0" t="s">
+      <c r="E235" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F235" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G235" s="3" t="n">
+      <c r="F235" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>2000032</v>
       </c>
-      <c r="C236" s="0" t="s">
+      <c r="C236" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E236" s="0" t="s">
+      <c r="E236" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F236" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G236" s="3" t="n">
+      <c r="F236" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G236" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>2000033</v>
       </c>
-      <c r="C237" s="0" t="s">
+      <c r="C237" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E237" s="0" t="s">
+      <c r="E237" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F237" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G237" s="3" t="n">
+      <c r="F237" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G237" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>2000034</v>
       </c>
-      <c r="C238" s="0" t="s">
+      <c r="C238" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E238" s="0" t="s">
+      <c r="E238" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F238" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G238" s="3" t="n">
+      <c r="F238" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G238" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>2000035</v>
       </c>
-      <c r="C239" s="0" t="s">
+      <c r="C239" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E239" s="0" t="s">
+      <c r="E239" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F239" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G239" s="3" t="n">
+      <c r="F239" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G239" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>2000036</v>
       </c>
-      <c r="C240" s="0" t="s">
+      <c r="C240" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E240" s="0" t="s">
+      <c r="E240" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F240" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G240" s="3" t="n">
+      <c r="F240" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G240" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>2000037</v>
       </c>
-      <c r="C241" s="0" t="s">
+      <c r="C241" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E241" s="0" t="s">
+      <c r="E241" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F241" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G241" s="3" t="n">
+      <c r="F241" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G241" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>2000038</v>
       </c>
-      <c r="C242" s="0" t="s">
+      <c r="C242" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E242" s="0" t="s">
+      <c r="E242" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F242" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G242" s="3" t="n">
+      <c r="F242" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G242" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>2000039</v>
       </c>
-      <c r="C243" s="0" t="s">
+      <c r="C243" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E243" s="0" t="s">
+      <c r="E243" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F243" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G243" s="3" t="n">
+      <c r="F243" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G243" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>2000040</v>
       </c>
-      <c r="C244" s="0" t="s">
+      <c r="C244" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E244" s="0" t="s">
+      <c r="E244" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F244" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G244" s="3" t="n">
+      <c r="F244" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G244" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="A245" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>2000041</v>
       </c>
-      <c r="C245" s="0" t="s">
+      <c r="C245" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E245" s="0" t="s">
+      <c r="E245" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F245" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G245" s="3" t="n">
+      <c r="F245" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G245" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>2000042</v>
       </c>
-      <c r="C246" s="0" t="s">
+      <c r="C246" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E246" s="0" t="s">
+      <c r="E246" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F246" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G246" s="3" t="n">
+      <c r="F246" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G246" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>2000043</v>
       </c>
-      <c r="C247" s="0" t="s">
+      <c r="C247" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E247" s="0" t="s">
+      <c r="E247" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F247" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G247" s="3" t="n">
+      <c r="F247" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G247" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>2000044</v>
       </c>
-      <c r="C248" s="0" t="s">
+      <c r="C248" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E248" s="0" t="s">
+      <c r="E248" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F248" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G248" s="3" t="n">
+      <c r="F248" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G248" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>2000045</v>
       </c>
-      <c r="C249" s="0" t="s">
+      <c r="C249" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E249" s="0" t="s">
+      <c r="E249" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F249" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G249" s="3" t="n">
+      <c r="F249" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G249" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>2000046</v>
       </c>
-      <c r="C250" s="0" t="s">
+      <c r="C250" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E250" s="0" t="s">
+      <c r="E250" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F250" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G250" s="3" t="n">
+      <c r="F250" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G250" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>2000047</v>
       </c>
-      <c r="C251" s="0" t="s">
+      <c r="C251" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E251" s="0" t="s">
+      <c r="E251" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F251" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G251" s="3" t="n">
+      <c r="F251" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G251" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>2000048</v>
       </c>
-      <c r="C252" s="0" t="s">
+      <c r="C252" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E252" s="0" t="s">
+      <c r="E252" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F252" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G252" s="3" t="n">
+      <c r="F252" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G252" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>2000049</v>
       </c>
-      <c r="C253" s="0" t="s">
+      <c r="C253" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E253" s="0" t="s">
+      <c r="E253" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F253" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G253" s="3" t="n">
+      <c r="F253" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G253" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="A254" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>2000050</v>
       </c>
-      <c r="C254" s="0" t="s">
+      <c r="C254" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E254" s="0" t="s">
+      <c r="E254" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F254" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G254" s="3" t="n">
+      <c r="F254" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G254" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>2000051</v>
       </c>
-      <c r="C255" s="0" t="s">
+      <c r="C255" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E255" s="0" t="s">
+      <c r="E255" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F255" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G255" s="3" t="n">
+      <c r="F255" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G255" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="A256" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>2000052</v>
       </c>
-      <c r="C256" s="0" t="s">
+      <c r="C256" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E256" s="0" t="s">
+      <c r="E256" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F256" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G256" s="3" t="n">
+      <c r="F256" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G256" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>2000053</v>
       </c>
-      <c r="C257" s="0" t="s">
+      <c r="C257" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E257" s="0" t="s">
+      <c r="E257" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F257" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G257" s="3" t="n">
+      <c r="F257" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G257" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="A258" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>2000054</v>
       </c>
-      <c r="C258" s="0" t="s">
+      <c r="C258" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E258" s="0" t="s">
+      <c r="E258" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F258" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G258" s="3" t="n">
+      <c r="F258" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G258" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>2000055</v>
       </c>
-      <c r="C259" s="0" t="s">
+      <c r="C259" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E259" s="0" t="s">
+      <c r="E259" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F259" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G259" s="3" t="n">
+      <c r="F259" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G259" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="A260" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>2000056</v>
       </c>
-      <c r="C260" s="0" t="s">
+      <c r="C260" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E260" s="0" t="s">
+      <c r="E260" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F260" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G260" s="3" t="n">
+      <c r="F260" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G260" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>2000057</v>
       </c>
-      <c r="C261" s="0" t="s">
+      <c r="C261" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E261" s="0" t="s">
+      <c r="E261" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F261" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G261" s="3" t="n">
+      <c r="F261" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G261" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>2000058</v>
       </c>
-      <c r="C262" s="0" t="s">
+      <c r="C262" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E262" s="0" t="s">
+      <c r="E262" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F262" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G262" s="3" t="n">
+      <c r="F262" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G262" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>2000059</v>
       </c>
-      <c r="C263" s="0" t="s">
+      <c r="C263" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E263" s="0" t="s">
+      <c r="E263" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F263" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G263" s="3" t="n">
+      <c r="F263" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G263" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>2000060</v>
       </c>
-      <c r="C264" s="0" t="s">
+      <c r="C264" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E264" s="0" t="s">
+      <c r="E264" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F264" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G264" s="3" t="n">
+      <c r="F264" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G264" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="A265" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>2000061</v>
       </c>
-      <c r="C265" s="0" t="s">
+      <c r="C265" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E265" s="0" t="s">
+      <c r="E265" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F265" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G265" s="3" t="n">
+      <c r="F265" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G265" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="A266" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>2000062</v>
       </c>
-      <c r="C266" s="0" t="s">
+      <c r="C266" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E266" s="0" t="s">
+      <c r="E266" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F266" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G266" s="3" t="n">
+      <c r="F266" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G266" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+      <c r="A267" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>2000063</v>
       </c>
-      <c r="C267" s="0" t="s">
+      <c r="C267" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E267" s="0" t="s">
+      <c r="E267" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F267" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G267" s="3" t="n">
+      <c r="F267" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G267" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>2000064</v>
       </c>
-      <c r="C268" s="0" t="s">
+      <c r="C268" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E268" s="0" t="s">
+      <c r="E268" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F268" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G268" s="3" t="n">
+      <c r="F268" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G268" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="A269" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>2000065</v>
       </c>
-      <c r="C269" s="0" t="s">
+      <c r="C269" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E269" s="0" t="s">
+      <c r="E269" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F269" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G269" s="3" t="n">
+      <c r="F269" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G269" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>2000066</v>
       </c>
-      <c r="C270" s="0" t="s">
+      <c r="C270" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E270" s="0" t="s">
+      <c r="E270" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F270" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G270" s="3" t="n">
+      <c r="F270" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G270" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>2000067</v>
       </c>
-      <c r="C271" s="0" t="s">
+      <c r="C271" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E271" s="0" t="s">
+      <c r="E271" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F271" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G271" s="3" t="n">
+      <c r="F271" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G271" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>2000068</v>
       </c>
-      <c r="C272" s="0" t="s">
+      <c r="C272" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E272" s="0" t="s">
+      <c r="E272" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F272" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G272" s="3" t="n">
+      <c r="F272" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G272" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="A273" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>2000069</v>
       </c>
-      <c r="C273" s="0" t="s">
+      <c r="C273" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E273" s="0" t="s">
+      <c r="E273" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F273" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G273" s="3" t="n">
+      <c r="F273" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G273" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_holiday.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/loc_holiday.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="111">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">National Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">1/11/2019</t>
@@ -489,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:G"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A254" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,9 +545,8 @@
       <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,17 +560,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,17 +583,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,17 +606,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,17 +629,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,17 +652,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,17 +675,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,17 +698,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,17 +721,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,17 +744,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,17 +767,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,17 +790,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,17 +813,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +833,7 @@
         <v>2000001</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -854,9 +844,8 @@
       <c r="F15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,20 +856,19 @@
         <v>2000002</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,20 +879,19 @@
         <v>2000003</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,20 +902,19 @@
         <v>2000004</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,20 +925,19 @@
         <v>2000005</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,20 +948,19 @@
         <v>2000006</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,20 +971,19 @@
         <v>2000007</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,20 +994,19 @@
         <v>2000008</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,20 +1017,19 @@
         <v>2000010</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,20 +1040,19 @@
         <v>2000012</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,25 +1063,24 @@
         <v>2000013</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>2000001</v>
@@ -1113,19 +1092,18 @@
         <v>9</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>2000002</v>
@@ -1134,22 +1112,21 @@
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>2000003</v>
@@ -1158,22 +1135,21 @@
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>2000004</v>
@@ -1182,22 +1158,21 @@
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>2000005</v>
@@ -1206,22 +1181,21 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>2000006</v>
@@ -1230,22 +1204,21 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>2000007</v>
@@ -1254,22 +1227,21 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>2000008</v>
@@ -1278,22 +1250,21 @@
         <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>2000009</v>
@@ -1302,22 +1273,21 @@
         <v>8</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>2000010</v>
@@ -1326,22 +1296,21 @@
         <v>8</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>2000011</v>
@@ -1350,22 +1319,21 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>2000012</v>
@@ -1374,22 +1342,21 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>2000013</v>
@@ -1398,281 +1365,269 @@
         <v>8</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>2000001</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>2000002</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>2000003</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>2000004</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>2000005</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>2000006</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>2000007</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>2000008</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>2000010</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>2000012</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>2000013</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,17 +1641,16 @@
         <v>8</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,17 +1664,16 @@
         <v>8</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,17 +1687,16 @@
         <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,17 +1710,16 @@
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,17 +1733,16 @@
         <v>8</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,17 +1756,16 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,17 +1779,16 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,17 +1802,16 @@
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,17 +1825,16 @@
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,17 +1848,16 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,17 +1871,16 @@
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,17 +1894,16 @@
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,17 +1917,16 @@
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,17 +1940,16 @@
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,17 +1963,16 @@
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,17 +1986,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,17 +2009,16 @@
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2094,17 +2032,16 @@
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,17 +2055,16 @@
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,17 +2078,16 @@
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2166,17 +2101,16 @@
         <v>8</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,17 +2124,16 @@
         <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,17 +2147,16 @@
         <v>8</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,17 +2170,16 @@
         <v>8</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,17 +2193,16 @@
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,17 +2216,16 @@
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,17 +2239,16 @@
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,17 +2262,16 @@
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2358,17 +2285,16 @@
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2382,17 +2308,16 @@
         <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,17 +2331,16 @@
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,17 +2354,16 @@
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,17 +2377,16 @@
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2478,17 +2400,16 @@
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,17 +2423,16 @@
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,17 +2446,16 @@
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,17 +2469,16 @@
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,17 +2492,16 @@
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,17 +2515,16 @@
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,17 +2538,16 @@
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,17 +2561,16 @@
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,17 +2584,16 @@
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,17 +2607,16 @@
         <v>8</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,17 +2630,16 @@
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,17 +2653,16 @@
         <v>8</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,17 +2676,16 @@
         <v>8</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,17 +2699,16 @@
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,17 +2722,16 @@
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,17 +2745,16 @@
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,17 +2768,16 @@
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,17 +2791,16 @@
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,17 +2814,16 @@
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,17 +2837,16 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,17 +2860,16 @@
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,17 +2883,16 @@
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,22 +2906,21 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>2000014</v>
@@ -3030,22 +2929,21 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>2000015</v>
@@ -3054,22 +2952,21 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G107" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>2000016</v>
@@ -3078,22 +2975,21 @@
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G108" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>2000017</v>
@@ -3102,22 +2998,21 @@
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>2000018</v>
@@ -3126,22 +3021,21 @@
         <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>2000019</v>
@@ -3150,22 +3044,21 @@
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G111" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>2000020</v>
@@ -3174,22 +3067,21 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G112" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>2000021</v>
@@ -3198,22 +3090,21 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G113" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>2000022</v>
@@ -3222,22 +3113,21 @@
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G114" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>2000023</v>
@@ -3246,22 +3136,21 @@
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G115" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>2000024</v>
@@ -3270,22 +3159,21 @@
         <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G116" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>2000025</v>
@@ -3294,22 +3182,21 @@
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>2000026</v>
@@ -3318,22 +3205,21 @@
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G118" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>2000027</v>
@@ -3342,22 +3228,21 @@
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G119" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>2000028</v>
@@ -3366,22 +3251,21 @@
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G120" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>2000029</v>
@@ -3390,22 +3274,21 @@
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G121" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>2000030</v>
@@ -3414,22 +3297,21 @@
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>2000031</v>
@@ -3438,22 +3320,21 @@
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G123" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>2000032</v>
@@ -3462,22 +3343,21 @@
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G124" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>2000033</v>
@@ -3486,22 +3366,21 @@
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G125" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>2000034</v>
@@ -3510,22 +3389,21 @@
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G126" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>2000035</v>
@@ -3534,22 +3412,21 @@
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>2000036</v>
@@ -3558,22 +3435,21 @@
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G128" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>2000037</v>
@@ -3582,22 +3458,21 @@
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G129" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>2000038</v>
@@ -3606,22 +3481,21 @@
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G130" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>2000039</v>
@@ -3630,22 +3504,21 @@
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G131" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>2000040</v>
@@ -3654,22 +3527,21 @@
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>2000041</v>
@@ -3678,22 +3550,21 @@
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>2000042</v>
@@ -3702,22 +3573,21 @@
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>2000043</v>
@@ -3726,22 +3596,21 @@
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>2000044</v>
@@ -3750,22 +3619,21 @@
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G136" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>2000045</v>
@@ -3774,22 +3642,21 @@
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G137" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>2000046</v>
@@ -3798,22 +3665,21 @@
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G138" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>2000047</v>
@@ -3822,22 +3688,21 @@
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G139" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>2000048</v>
@@ -3846,22 +3711,21 @@
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G140" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>2000049</v>
@@ -3870,22 +3734,21 @@
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>2000050</v>
@@ -3894,22 +3757,21 @@
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G142" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>2000051</v>
@@ -3918,22 +3780,21 @@
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G143" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>2000052</v>
@@ -3942,22 +3803,21 @@
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G144" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>2000053</v>
@@ -3966,22 +3826,21 @@
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>2000054</v>
@@ -3990,22 +3849,21 @@
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G146" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>2000055</v>
@@ -4014,22 +3872,21 @@
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G147" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>2000056</v>
@@ -4038,22 +3895,21 @@
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G148" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>2000057</v>
@@ -4062,22 +3918,21 @@
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G149" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>2000058</v>
@@ -4086,22 +3941,21 @@
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G150" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>2000059</v>
@@ -4110,22 +3964,21 @@
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G151" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>2000060</v>
@@ -4134,22 +3987,21 @@
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G152" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>2000061</v>
@@ -4158,22 +4010,21 @@
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G153" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>2000062</v>
@@ -4182,22 +4033,21 @@
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G154" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>2000063</v>
@@ -4206,22 +4056,21 @@
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G155" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>2000064</v>
@@ -4230,22 +4079,21 @@
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G156" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>2000065</v>
@@ -4254,22 +4102,21 @@
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G157" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>2000066</v>
@@ -4278,22 +4125,21 @@
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G158" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>2000067</v>
@@ -4302,22 +4148,21 @@
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G159" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>2000068</v>
@@ -4326,22 +4171,21 @@
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G160" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>2000069</v>
@@ -4350,17 +4194,16 @@
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G161" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,20 +4214,19 @@
         <v>2000014</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G162" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4395,20 +4237,19 @@
         <v>2000015</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G163" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4419,20 +4260,19 @@
         <v>2000016</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G164" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,20 +4283,19 @@
         <v>2000017</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G165" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,20 +4306,19 @@
         <v>2000018</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G166" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,20 +4329,19 @@
         <v>2000019</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G167" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4515,20 +4352,19 @@
         <v>2000020</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G168" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,20 +4375,19 @@
         <v>2000021</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G169" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,20 +4398,19 @@
         <v>2000022</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G170" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4587,20 +4421,19 @@
         <v>2000023</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G171" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,20 +4444,19 @@
         <v>2000024</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G172" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,20 +4467,19 @@
         <v>2000025</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G173" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,20 +4490,19 @@
         <v>2000026</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G174" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,20 +4513,19 @@
         <v>2000027</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G175" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,20 +4536,19 @@
         <v>2000028</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G176" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4731,20 +4559,19 @@
         <v>2000029</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G177" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,20 +4582,19 @@
         <v>2000030</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G178" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,20 +4605,19 @@
         <v>2000031</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G179" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,20 +4628,19 @@
         <v>2000032</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G180" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4827,20 +4651,19 @@
         <v>2000033</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G181" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4851,20 +4674,19 @@
         <v>2000034</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G182" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,20 +4697,19 @@
         <v>2000035</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G183" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,20 +4720,19 @@
         <v>2000036</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G184" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,20 +4743,19 @@
         <v>2000037</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G185" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,20 +4766,19 @@
         <v>2000038</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G186" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,20 +4789,19 @@
         <v>2000039</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G187" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,20 +4812,19 @@
         <v>2000040</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G188" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,20 +4835,19 @@
         <v>2000041</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G189" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,20 +4858,19 @@
         <v>2000042</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G190" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,20 +4881,19 @@
         <v>2000043</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G191" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,20 +4904,19 @@
         <v>2000044</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G192" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,20 +4927,19 @@
         <v>2000045</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G193" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,20 +4950,19 @@
         <v>2000046</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G194" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,20 +4973,19 @@
         <v>2000047</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G195" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,20 +4996,19 @@
         <v>2000048</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G196" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,20 +5019,19 @@
         <v>2000049</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G197" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,20 +5042,19 @@
         <v>2000050</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G198" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5259,20 +5065,19 @@
         <v>2000051</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G199" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,20 +5088,19 @@
         <v>2000052</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G200" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,20 +5111,19 @@
         <v>2000053</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G201" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,20 +5134,19 @@
         <v>2000054</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G202" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,20 +5157,19 @@
         <v>2000055</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G203" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5379,20 +5180,19 @@
         <v>2000056</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G204" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,20 +5203,19 @@
         <v>2000057</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G205" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,20 +5226,19 @@
         <v>2000058</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G206" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,20 +5249,19 @@
         <v>2000059</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G207" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,20 +5272,19 @@
         <v>2000060</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G208" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,20 +5295,19 @@
         <v>2000061</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G209" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,20 +5318,19 @@
         <v>2000062</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G210" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,20 +5341,19 @@
         <v>2000063</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G211" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,20 +5364,19 @@
         <v>2000064</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G212" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5595,20 +5387,19 @@
         <v>2000065</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G213" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,20 +5410,19 @@
         <v>2000066</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G214" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,20 +5433,19 @@
         <v>2000067</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G215" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,20 +5456,19 @@
         <v>2000068</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G216" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,1364 +5479,1307 @@
         <v>2000069</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G217" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>2000014</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G218" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>2000015</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G219" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>2000016</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G220" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>2000017</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G221" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>2000018</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G222" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>2000019</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G223" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>2000020</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G224" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>2000021</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G225" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>2000022</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G226" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>2000023</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G227" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>2000024</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G228" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>2000025</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G229" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>2000026</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G230" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>2000027</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G231" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>2000028</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G232" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>2000029</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G233" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>2000030</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E234" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G234" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>2000031</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G235" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>2000032</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G236" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>2000033</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G237" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>2000034</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G238" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>2000035</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G239" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>2000036</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G240" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>2000037</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G241" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>2000038</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G242" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>2000039</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G243" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>2000040</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G244" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>2000041</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G245" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>2000042</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G246" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>2000043</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E247" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G247" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>2000044</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G248" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>2000045</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G249" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>2000046</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G250" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>2000047</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G251" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>2000048</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G252" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>2000049</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G253" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>2000050</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G254" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>2000051</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G255" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>2000052</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G256" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>2000053</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G257" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>2000054</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G258" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>2000055</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G259" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>2000056</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G260" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>2000057</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G261" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>2000058</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G262" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>2000059</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G263" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>2000060</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G264" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>2000061</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E265" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G265" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>2000062</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G266" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>2000063</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G267" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>2000064</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G268" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>2000065</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G269" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>2000066</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G270" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>2000067</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G271" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>2000068</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G272" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>2000069</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E273" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G273" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
